--- a/data/trans_dic/P02E$nadie-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P02E$nadie-Habitat-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8016478867321346</v>
+        <v>0.7986623229578121</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8755792621437736</v>
+        <v>0.8688624376955775</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.81187150169629</v>
+        <v>0.813450400550936</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.8487008983784543</v>
+        <v>0.8480459068775353</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.850947615351166</v>
+        <v>0.855380929528223</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.8532469355361836</v>
+        <v>0.8551825331550251</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.84780301471746</v>
+        <v>0.8496389787943436</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.8715266961889961</v>
+        <v>0.87540224464561</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.8546212165575559</v>
+        <v>0.8569798331078312</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9236953483616189</v>
+        <v>0.9246512504115793</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9524091405298504</v>
+        <v>0.9496995780965669</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9176478272097949</v>
+        <v>0.9180154966130358</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.9322589202115603</v>
+        <v>0.9317189464170769</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.9264006768732969</v>
+        <v>0.9303199938534398</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.9406005558773242</v>
+        <v>0.9384361021360206</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.9189799813703836</v>
+        <v>0.921000876134219</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.929415483813784</v>
+        <v>0.9275370863178899</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.9178228096278491</v>
+        <v>0.9212042054665109</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8582179283372204</v>
+        <v>0.859393449367819</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.9001633340494725</v>
+        <v>0.8974172322094653</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.9101931701740779</v>
+        <v>0.908000098504063</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.8687789809562012</v>
+        <v>0.8703173840091177</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.8855748838773292</v>
+        <v>0.8853633471528657</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.8482454653429027</v>
+        <v>0.8516361794794008</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.8805501268790765</v>
+        <v>0.8809972358731415</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.9016765108088788</v>
+        <v>0.9024622602907996</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.8837647167641554</v>
+        <v>0.8849401536317734</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9479298762832296</v>
+        <v>0.9494132047289813</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9581139043725069</v>
+        <v>0.9571322130074078</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9705375336754285</v>
+        <v>0.9719559837465969</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.9425266883691972</v>
+        <v>0.9402746971485172</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.9402815009873944</v>
+        <v>0.9381454831620116</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.9169047251896472</v>
+        <v>0.9172561334564112</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.9346165556168892</v>
+        <v>0.9320921788844329</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.9420935263262228</v>
+        <v>0.9400025287689456</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.9297912411845635</v>
+        <v>0.9342081943576788</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8363118163072858</v>
+        <v>0.8392047120410401</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8771732121411426</v>
+        <v>0.8760978634228705</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8658146034448658</v>
+        <v>0.8716375475006556</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.854029901263031</v>
+        <v>0.8579191594469642</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.9151758109705506</v>
+        <v>0.9135179361326128</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.8398118662369333</v>
+        <v>0.8434873244789127</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.8620017378192144</v>
+        <v>0.8680291838538147</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.9097329351965088</v>
+        <v>0.9094913687053934</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.8692530624709679</v>
+        <v>0.868680571576768</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9426147516058138</v>
+        <v>0.9395266732745935</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9530661736582077</v>
+        <v>0.9512132096821738</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9539925134274675</v>
+        <v>0.9591681732695593</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9365888971033492</v>
+        <v>0.9411567201909596</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9648940236847744</v>
+        <v>0.963964392420055</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.9216935908013476</v>
+        <v>0.9245061677053584</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9319806846645747</v>
+        <v>0.9330156863942027</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.9519469709612892</v>
+        <v>0.9512128030025147</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.9273192120584537</v>
+        <v>0.9283276097050516</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8549322341849759</v>
+        <v>0.8471338411886697</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8418532893723061</v>
+        <v>0.8384654502990571</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8517395144025747</v>
+        <v>0.8478435232962193</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.9148155525980133</v>
+        <v>0.9166552291440532</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.8771746009671025</v>
+        <v>0.8791791492109816</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.7961674956501101</v>
+        <v>0.7907188295910199</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.9026212901292557</v>
+        <v>0.9032003904865472</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.8745144992320287</v>
+        <v>0.8760253785460941</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.8307927437124565</v>
+        <v>0.8275157618899844</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9398194420109829</v>
+        <v>0.937557252929423</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9227107611211398</v>
+        <v>0.9219102959211405</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9386950697417098</v>
+        <v>0.9342692065935865</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9704752884855621</v>
+        <v>0.9706386773936175</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9371563672631842</v>
+        <v>0.9373259652069628</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.8832889448552868</v>
+        <v>0.879043367336974</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.9510990810168248</v>
+        <v>0.9519667342078666</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.9219570116301612</v>
+        <v>0.9231219867205342</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.8949767064922183</v>
+        <v>0.8899992307059111</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8710199830183961</v>
+        <v>0.8715370712004039</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8936977993490172</v>
+        <v>0.8931986298003862</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8927742835642811</v>
+        <v>0.8928430151555935</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.8983379238570088</v>
+        <v>0.8979296298487783</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.9006565311358972</v>
+        <v>0.9013368152973624</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.8548539657877792</v>
+        <v>0.8565147581687871</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.8931998794229092</v>
+        <v>0.8939354388389453</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.9031981677768497</v>
+        <v>0.9041474519593994</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.8769999626247312</v>
+        <v>0.875940457874665</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9214278025702569</v>
+        <v>0.9215998111948164</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9302573624778274</v>
+        <v>0.9312473656130823</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9345250465738693</v>
+        <v>0.9333362902076244</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9320433876119304</v>
+        <v>0.932868487000294</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9292349408907533</v>
+        <v>0.9306179494005015</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.8963810668211033</v>
+        <v>0.8970140388982013</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9238293545873003</v>
+        <v>0.9222774737741575</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.9259768071301965</v>
+        <v>0.9263892854910537</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.906276224755095</v>
+        <v>0.9057977609822012</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>105197</v>
+        <v>104805</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>174043</v>
+        <v>172708</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>130217</v>
+        <v>130470</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>186691</v>
+        <v>186547</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>253917</v>
+        <v>255240</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>167937</v>
+        <v>168318</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>297748</v>
+        <v>298393</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>433295</v>
+        <v>435222</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>305281</v>
+        <v>306123</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>121213</v>
+        <v>121338</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>189315</v>
+        <v>188777</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>147182</v>
+        <v>147241</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>205072</v>
+        <v>204953</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>276431</v>
+        <v>277601</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>185130</v>
+        <v>184704</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>322746</v>
+        <v>323456</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>462076</v>
+        <v>461142</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>327857</v>
+        <v>329065</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>168946</v>
+        <v>169178</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>273360</v>
+        <v>272526</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>216462</v>
+        <v>215941</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>265918</v>
+        <v>266389</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>405472</v>
+        <v>405375</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>303787</v>
+        <v>305002</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>442863</v>
+        <v>443088</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>686664</v>
+        <v>687262</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>526684</v>
+        <v>527385</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>186607</v>
+        <v>186899</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>290958</v>
+        <v>290660</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>230813</v>
+        <v>231151</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>288491</v>
+        <v>287802</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>430520</v>
+        <v>429542</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>328377</v>
+        <v>328502</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>470055</v>
+        <v>468786</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>717443</v>
+        <v>715850</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>554114</v>
+        <v>556746</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>106829</v>
+        <v>107198</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>193589</v>
+        <v>193351</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>141999</v>
+        <v>142954</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>168746</v>
+        <v>169515</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>324547</v>
+        <v>323959</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>213178</v>
+        <v>214111</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>280432</v>
+        <v>282392</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>523391</v>
+        <v>523252</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>363213</v>
+        <v>362974</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>120408</v>
+        <v>120013</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>210338</v>
+        <v>209929</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>156460</v>
+        <v>157309</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>185059</v>
+        <v>185961</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>342178</v>
+        <v>341849</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>233963</v>
+        <v>234677</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>303198</v>
+        <v>303534</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>547678</v>
+        <v>547256</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>387476</v>
+        <v>387897</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>145657</v>
+        <v>144329</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>220275</v>
+        <v>219389</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>165622</v>
+        <v>164864</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>258132</v>
+        <v>258651</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>356145</v>
+        <v>356959</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>240592</v>
+        <v>238946</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>408473</v>
+        <v>408735</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>583886</v>
+        <v>584895</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>412604</v>
+        <v>410977</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>160120</v>
+        <v>159734</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>241432</v>
+        <v>241222</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>182530</v>
+        <v>181670</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>273837</v>
+        <v>273883</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>380499</v>
+        <v>380567</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>266919</v>
+        <v>265636</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>430411</v>
+        <v>430804</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>615562</v>
+        <v>616340</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>444480</v>
+        <v>442008</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>545427</v>
+        <v>545751</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>880117</v>
+        <v>879626</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>675533</v>
+        <v>675585</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>903559</v>
+        <v>903148</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1366203</v>
+        <v>1367235</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>949728</v>
+        <v>951573</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1457708</v>
+        <v>1458908</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>2259532</v>
+        <v>2261907</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1637930</v>
+        <v>1635951</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>576993</v>
+        <v>577100</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>916121</v>
+        <v>917096</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>707124</v>
+        <v>706225</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>937460</v>
+        <v>938290</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>1409554</v>
+        <v>1411652</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>995864</v>
+        <v>996567</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>1507695</v>
+        <v>1505162</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>2316517</v>
+        <v>2317549</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1692608</v>
+        <v>1691714</v>
       </c>
     </row>
     <row r="24">
